--- a/Codelist Excel Files and Conversion Templates to XML/pil_properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/pil_properties.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Draft Excel Codelists/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3658C9F-0F0E-D64A-B3AF-2976866D510E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85790ED9-7881-E746-A740-3A3F97C5165A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="1200" windowWidth="59980" windowHeight="31380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -740,9 +740,6 @@
     <t>propertyClass</t>
   </si>
   <si>
-    <t>Observed Properties for Pile Installation and Tests</t>
-  </si>
-  <si>
     <t>blow_count</t>
   </si>
   <si>
@@ -1065,6 +1062,9 @@
   </si>
   <si>
     <t>Codes and definitions properties observed during pile installation as well as observed properteis from post-installation testing.</t>
+  </si>
+  <si>
+    <t>DIGGS Pile Installation Properties</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1249,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1306,17 +1306,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1865,7 +1857,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1904,18 +1896,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>233</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -1981,13 +1973,13 @@
         <v/>
       </c>
       <c r="B2" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>236</v>
-      </c>
       <c r="D2" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>180</v>
@@ -2003,13 +1995,13 @@
         <v/>
       </c>
       <c r="B3" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>1</v>
@@ -2028,10 +2020,10 @@
         <v>60</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>1</v>
@@ -2047,13 +2039,13 @@
         <v/>
       </c>
       <c r="B5" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>239</v>
-      </c>
       <c r="D5" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>1</v>
@@ -2069,13 +2061,13 @@
         <v/>
       </c>
       <c r="B6" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>243</v>
-      </c>
       <c r="D6" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>1</v>
@@ -2091,13 +2083,13 @@
         <v/>
       </c>
       <c r="B7" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>245</v>
-      </c>
       <c r="D7" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>4</v>
@@ -2113,13 +2105,13 @@
         <v/>
       </c>
       <c r="B8" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>247</v>
-      </c>
       <c r="D8" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>1</v>
@@ -2135,13 +2127,13 @@
         <v/>
       </c>
       <c r="B9" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>250</v>
-      </c>
       <c r="D9" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>1</v>
@@ -2160,10 +2152,10 @@
         <v>25</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>25</v>
@@ -2182,10 +2174,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>1</v>
@@ -2196,18 +2188,18 @@
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="str">
+      <c r="A12" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B2838,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B12" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>331</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>332</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>336</v>
+      <c r="D12" s="24" t="s">
+        <v>335</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>1</v>
@@ -2223,13 +2215,13 @@
         <v/>
       </c>
       <c r="B13" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>1</v>
@@ -2245,13 +2237,13 @@
         <v/>
       </c>
       <c r="B14" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>1</v>
@@ -2267,13 +2259,13 @@
         <v/>
       </c>
       <c r="B15" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>1</v>
@@ -2284,18 +2276,18 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="str">
+      <c r="A16" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B2841,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B16" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>333</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="D16" s="24" t="s">
         <v>334</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>335</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>1</v>
@@ -2311,13 +2303,13 @@
         <v/>
       </c>
       <c r="B17" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>1</v>
@@ -2333,13 +2325,13 @@
         <v/>
       </c>
       <c r="B18" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>1</v>
@@ -2355,13 +2347,13 @@
         <v/>
       </c>
       <c r="B19" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>1</v>
@@ -2372,18 +2364,18 @@
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="str">
+      <c r="A20" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B2844,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B20" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="C20" s="25" t="s">
-        <v>328</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>330</v>
+      <c r="D20" s="24" t="s">
+        <v>329</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>1</v>
@@ -2399,13 +2391,13 @@
         <v/>
       </c>
       <c r="B21" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>1</v>
@@ -2421,13 +2413,13 @@
         <v/>
       </c>
       <c r="B22" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>1</v>
@@ -2443,13 +2435,13 @@
         <v/>
       </c>
       <c r="B23" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>1</v>
@@ -2460,18 +2452,18 @@
       <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="str">
+      <c r="A24" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B2848,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B24" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="C24" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="D24" s="24" t="s">
         <v>325</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>326</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>1</v>
@@ -2487,13 +2479,13 @@
         <v/>
       </c>
       <c r="B25" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>1</v>
@@ -2509,13 +2501,13 @@
         <v/>
       </c>
       <c r="B26" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>1</v>
@@ -2531,13 +2523,13 @@
         <v/>
       </c>
       <c r="B27" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>1</v>
@@ -2553,13 +2545,13 @@
         <v/>
       </c>
       <c r="B28" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>1</v>
@@ -2575,13 +2567,13 @@
         <v/>
       </c>
       <c r="B29" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>1</v>
@@ -2597,13 +2589,13 @@
         <v/>
       </c>
       <c r="B30" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>1</v>
@@ -2614,18 +2606,18 @@
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="str">
+      <c r="A31" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B2853,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B31" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C31" s="24" t="s">
         <v>320</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="D31" s="24" t="s">
         <v>321</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>322</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>1</v>
@@ -2641,13 +2633,13 @@
         <v/>
       </c>
       <c r="B32" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E32" s="22" t="s">
         <v>180</v>
@@ -2663,13 +2655,13 @@
         <v/>
       </c>
       <c r="B33" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E33" s="18" t="s">
         <v>180</v>
@@ -2685,13 +2677,13 @@
         <v/>
       </c>
       <c r="B34" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E34" s="18" t="s">
         <v>180</v>
@@ -2707,13 +2699,13 @@
         <v/>
       </c>
       <c r="B35" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="D35" s="17" t="s">
         <v>309</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>310</v>
       </c>
       <c r="E35" s="18" t="s">
         <v>180</v>
@@ -2729,13 +2721,13 @@
         <v/>
       </c>
       <c r="B36" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="D36" s="17" t="s">
         <v>318</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>319</v>
       </c>
       <c r="E36" s="18" t="s">
         <v>174</v>
@@ -2801,28 +2793,28 @@
         <v/>
       </c>
       <c r="B2" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>IF(ISNA(VLOOKUP(B3,Definitions!B$2:B$1816,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="str">
-        <f>IF(ISNA(VLOOKUP(B3,Definitions!B$2:B$1816,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="C3" s="28" t="s">
+      <c r="D3" t="s">
         <v>339</v>
-      </c>
-      <c r="D3" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2831,13 +2823,13 @@
         <v/>
       </c>
       <c r="B4" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="C4" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D4" t="s">
         <v>339</v>
-      </c>
-      <c r="D4" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2846,58 +2838,58 @@
         <v/>
       </c>
       <c r="B5" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C5" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D5" t="s">
         <v>339</v>
       </c>
-      <c r="D5" t="s">
-        <v>340</v>
-      </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="str">
+      <c r="A6" t="str">
         <f>IF(ISNA(VLOOKUP(B6,Definitions!B$2:B$1816,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="C6" s="28" t="s">
+      <c r="B6" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D6" t="s">
         <v>339</v>
       </c>
-      <c r="D6" t="s">
-        <v>340</v>
-      </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="str">
+      <c r="A7" t="str">
         <f>IF(ISNA(VLOOKUP(B7,Definitions!B$2:B$1816,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>320</v>
+      <c r="B7" s="15" t="s">
+        <v>319</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f>IF(ISNA(VLOOKUP(B8,Definitions!B$2:B$1816,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D7" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="str">
-        <f>IF(ISNA(VLOOKUP(B8,Definitions!B$2:B$1816,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="C8" s="28" t="s">
+      <c r="D8" t="s">
         <v>339</v>
-      </c>
-      <c r="D8" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2906,13 +2898,13 @@
         <v/>
       </c>
       <c r="B9" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="C9" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D9" t="s">
         <v>339</v>
-      </c>
-      <c r="D9" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2921,13 +2913,13 @@
         <v/>
       </c>
       <c r="B10" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="C10" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D10" t="s">
         <v>339</v>
-      </c>
-      <c r="D10" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2936,28 +2928,28 @@
         <v/>
       </c>
       <c r="B11" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="C11" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D11" t="s">
         <v>339</v>
       </c>
-      <c r="D11" t="s">
-        <v>340</v>
-      </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="str">
+      <c r="A12" t="str">
         <f>IF(ISNA(VLOOKUP(B12,Definitions!B$2:B$1816,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>333</v>
-      </c>
-      <c r="C12" s="28" t="s">
+      <c r="B12" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D12" t="s">
         <v>339</v>
-      </c>
-      <c r="D12" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2966,13 +2958,13 @@
         <v/>
       </c>
       <c r="B13" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="C13" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D13" t="s">
         <v>339</v>
-      </c>
-      <c r="D13" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2981,13 +2973,13 @@
         <v/>
       </c>
       <c r="B14" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="C14" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D14" t="s">
         <v>339</v>
-      </c>
-      <c r="D14" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2996,58 +2988,58 @@
         <v/>
       </c>
       <c r="B15" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="C15" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D15" t="s">
         <v>339</v>
       </c>
-      <c r="D15" t="s">
-        <v>340</v>
-      </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="str">
+      <c r="A16" t="str">
         <f>IF(ISNA(VLOOKUP(B16,Definitions!B$2:B$1816,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B16" s="27" t="s">
-        <v>317</v>
+      <c r="B16" s="15" t="s">
+        <v>316</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D16" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f>IF(ISNA(VLOOKUP(B17,Definitions!B$2:B$1816,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D16" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="str">
-        <f>IF(ISNA(VLOOKUP(B17,Definitions!B$2:B$1816,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="C17" s="28" t="s">
+      <c r="D17" t="s">
         <v>339</v>
       </c>
-      <c r="D17" t="s">
-        <v>340</v>
-      </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="str">
+      <c r="A18" t="str">
         <f>IF(ISNA(VLOOKUP(B18,Definitions!B$2:B$1816,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="C18" s="28" t="s">
+      <c r="B18" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D18" t="s">
         <v>339</v>
-      </c>
-      <c r="D18" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3056,13 +3048,13 @@
         <v/>
       </c>
       <c r="B19" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="C19" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D19" t="s">
         <v>339</v>
-      </c>
-      <c r="D19" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3071,13 +3063,13 @@
         <v/>
       </c>
       <c r="B20" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="C20" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D20" t="s">
         <v>339</v>
-      </c>
-      <c r="D20" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3086,13 +3078,13 @@
         <v/>
       </c>
       <c r="B21" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="C21" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D21" t="s">
         <v>339</v>
-      </c>
-      <c r="D21" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3104,25 +3096,25 @@
         <v>60</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D22" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f>IF(ISNA(VLOOKUP(B23,Definitions!B$2:B$1816,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D22" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="str">
-        <f>IF(ISNA(VLOOKUP(B23,Definitions!B$2:B$1816,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="28" t="s">
+      <c r="D23" t="s">
         <v>339</v>
-      </c>
-      <c r="D23" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3131,28 +3123,28 @@
         <v/>
       </c>
       <c r="B24" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D24" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f>IF(ISNA(VLOOKUP(B25,Definitions!B$2:B$1816,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D24" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="str">
-        <f>IF(ISNA(VLOOKUP(B25,Definitions!B$2:B$1816,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="C25" s="28" t="s">
+      <c r="D25" t="s">
         <v>339</v>
-      </c>
-      <c r="D25" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3161,28 +3153,28 @@
         <v/>
       </c>
       <c r="B26" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <f>IF(ISNA(VLOOKUP(B27,Definitions!B$2:B$1816,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D26" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="26" t="str">
-        <f>IF(ISNA(VLOOKUP(B27,Definitions!B$2:B$1816,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="C27" s="28" t="s">
+      <c r="D27" t="s">
         <v>339</v>
-      </c>
-      <c r="D27" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3194,25 +3186,25 @@
         <v>3</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D28" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" t="str">
+        <f>IF(ISNA(VLOOKUP(B29,Definitions!B$2:B$1816,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D28" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="26" t="str">
-        <f>IF(ISNA(VLOOKUP(B29,Definitions!B$2:B$1816,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="28" t="s">
+      <c r="D29" t="s">
         <v>339</v>
-      </c>
-      <c r="D29" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3221,43 +3213,43 @@
         <v/>
       </c>
       <c r="B30" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D30" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
+        <f>IF(ISNA(VLOOKUP(B31,Definitions!B$2:B$1816,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D30" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="26" t="str">
-        <f>IF(ISNA(VLOOKUP(B31,Definitions!B$2:B$1816,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="C31" s="28" t="s">
+      <c r="D31" t="s">
         <v>339</v>
       </c>
-      <c r="D31" t="s">
-        <v>340</v>
-      </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="26" t="str">
+      <c r="A32" t="str">
         <f>IF(ISNA(VLOOKUP(B32,Definitions!B$2:B$1816,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B32" s="27" t="s">
-        <v>331</v>
-      </c>
-      <c r="C32" s="28" t="s">
+      <c r="B32" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D32" t="s">
         <v>339</v>
-      </c>
-      <c r="D32" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3266,13 +3258,13 @@
         <v/>
       </c>
       <c r="B33" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="C33" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D33" t="s">
         <v>339</v>
-      </c>
-      <c r="D33" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3281,13 +3273,13 @@
         <v/>
       </c>
       <c r="B34" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="C34" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D34" t="s">
         <v>339</v>
-      </c>
-      <c r="D34" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3296,13 +3288,13 @@
         <v/>
       </c>
       <c r="B35" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="C35" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D35" t="s">
         <v>339</v>
-      </c>
-      <c r="D35" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3311,13 +3303,13 @@
         <v/>
       </c>
       <c r="B36" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="C36" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D36" t="s">
         <v>339</v>
-      </c>
-      <c r="D36" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3326,13 +3318,13 @@
         <v/>
       </c>
       <c r="B37" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="C37" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D37" t="s">
         <v>339</v>
-      </c>
-      <c r="D37" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3341,13 +3333,13 @@
         <v/>
       </c>
       <c r="B38" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C38" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D38" t="s">
         <v>339</v>
-      </c>
-      <c r="D38" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3356,28 +3348,28 @@
         <v/>
       </c>
       <c r="B39" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D39" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" t="str">
+        <f>IF(ISNA(VLOOKUP(B40,Definitions!B$2:B$1816,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D39" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="26" t="str">
-        <f>IF(ISNA(VLOOKUP(B40,Definitions!B$2:B$1816,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="C40" s="28" t="s">
+      <c r="D40" t="s">
         <v>339</v>
-      </c>
-      <c r="D40" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3389,25 +3381,25 @@
         <v>25</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D41" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" t="str">
+        <f>IF(ISNA(VLOOKUP(B42,Definitions!B$2:B$1816,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D41" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="26" t="str">
-        <f>IF(ISNA(VLOOKUP(B42,Definitions!B$2:B$1816,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="28" t="s">
+      <c r="D42" t="s">
         <v>339</v>
-      </c>
-      <c r="D42" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3416,43 +3408,43 @@
         <v/>
       </c>
       <c r="B43" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D43" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" t="str">
+        <f>IF(ISNA(VLOOKUP(B44,Definitions!B$2:B$1816,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D43" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="26" t="str">
-        <f>IF(ISNA(VLOOKUP(B44,Definitions!B$2:B$1816,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="C44" s="28" t="s">
+      <c r="D44" t="s">
         <v>339</v>
       </c>
-      <c r="D44" t="s">
-        <v>340</v>
-      </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="26" t="str">
+      <c r="A45" t="str">
         <f>IF(ISNA(VLOOKUP(B45,Definitions!B$2:B$1816,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B45" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="C45" s="28" t="s">
+      <c r="B45" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D45" t="s">
         <v>339</v>
-      </c>
-      <c r="D45" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3461,13 +3453,13 @@
         <v/>
       </c>
       <c r="B46" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="C46" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D46" t="s">
         <v>339</v>
-      </c>
-      <c r="D46" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3476,13 +3468,13 @@
         <v/>
       </c>
       <c r="B47" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="C47" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D47" t="s">
         <v>339</v>
-      </c>
-      <c r="D47" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3491,13 +3483,13 @@
         <v/>
       </c>
       <c r="B48" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D48" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/Codelist Excel Files and Conversion Templates to XML/pil_properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/pil_properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85790ED9-7881-E746-A740-3A3F97C5165A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C545473-22D7-4840-86B1-6F096D10952F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="1200" windowWidth="59980" windowHeight="31380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="1200" windowWidth="59980" windowHeight="31380" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -1049,15 +1049,6 @@
     <t>stk_max</t>
   </si>
   <si>
-    <t>//diggs:DriveRecordProperty/diggs:propertyClass</t>
-  </si>
-  <si>
-    <t>//diggs:PDARecordProperty/diggs:propertyClass</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>pil_properties</t>
   </si>
   <si>
@@ -1065,6 +1056,15 @@
   </si>
   <si>
     <t>DIGGS Pile Installation Properties</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:PileDrivingRecord</t>
+  </si>
+  <si>
+    <t>ancestor::diggs:PDARecord</t>
+  </si>
+  <si>
+    <t>//diggs:propertyClass</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1323,25 @@
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1525,51 +1543,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DictionaryName" displayName="DictionaryName" ref="A1:E3" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DictionaryName" displayName="DictionaryName" ref="A1:E3" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:E3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Start" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Dictionary ID" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DictionaryFile" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DictionaryName" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Start" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Dictionary ID" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DictionaryFile" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DictionaryName" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H36" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H36" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:H36" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="12">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2828,1,FALSE)),"Not used","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D48" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D48" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:D48" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D48">
     <sortCondition ref="B1:B48"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="3">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1816,1,FALSE)),"Not listed","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ConditionalElement"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ConditionalElement" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1856,7 +1874,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1901,13 +1919,13 @@
         <v>233</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -2760,9 +2778,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2796,10 +2814,10 @@
         <v>237</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D2" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2811,10 +2829,10 @@
         <v>237</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D3" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2826,10 +2844,10 @@
         <v>307</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D4" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2841,10 +2859,10 @@
         <v>234</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D5" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2856,10 +2874,10 @@
         <v>234</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D6" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2871,10 +2889,10 @@
         <v>319</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D7" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2886,10 +2904,10 @@
         <v>319</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D8" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2901,10 +2919,10 @@
         <v>298</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D9" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2916,10 +2934,10 @@
         <v>299</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D10" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2931,10 +2949,10 @@
         <v>300</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D11" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2946,10 +2964,10 @@
         <v>332</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D12" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2961,10 +2979,10 @@
         <v>259</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D13" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2976,10 +2994,10 @@
         <v>261</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D14" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2991,10 +3009,10 @@
         <v>260</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D15" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3006,10 +3024,10 @@
         <v>316</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D16" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3021,10 +3039,10 @@
         <v>316</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D17" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3036,10 +3054,10 @@
         <v>323</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D18" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3051,10 +3069,10 @@
         <v>277</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D19" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3066,10 +3084,10 @@
         <v>279</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D20" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3081,10 +3099,10 @@
         <v>278</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D21" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3096,10 +3114,10 @@
         <v>60</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D22" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3111,10 +3129,10 @@
         <v>60</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D23" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3126,10 +3144,10 @@
         <v>245</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D24" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3141,10 +3159,10 @@
         <v>245</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D25" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3156,10 +3174,10 @@
         <v>248</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D26" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3171,10 +3189,10 @@
         <v>248</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D27" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3186,10 +3204,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D28" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3201,10 +3219,10 @@
         <v>3</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D29" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3216,10 +3234,10 @@
         <v>243</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D30" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3231,10 +3249,10 @@
         <v>243</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D31" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3246,10 +3264,10 @@
         <v>330</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D32" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3261,10 +3279,10 @@
         <v>253</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D33" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3276,10 +3294,10 @@
         <v>255</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D34" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3291,10 +3309,10 @@
         <v>254</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D35" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3306,10 +3324,10 @@
         <v>290</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D36" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3321,10 +3339,10 @@
         <v>336</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D37" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3336,10 +3354,10 @@
         <v>291</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D38" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3351,10 +3369,10 @@
         <v>252</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D39" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3366,10 +3384,10 @@
         <v>252</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D40" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3381,10 +3399,10 @@
         <v>25</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D41" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3396,10 +3414,10 @@
         <v>25</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D42" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3411,10 +3429,10 @@
         <v>241</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D43" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3426,10 +3444,10 @@
         <v>241</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D44" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3441,10 +3459,10 @@
         <v>326</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D45" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3456,10 +3474,10 @@
         <v>272</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D46" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3471,10 +3489,10 @@
         <v>271</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D47" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3486,10 +3504,10 @@
         <v>273</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="D48" t="s">
-        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/Codelist Excel Files and Conversion Templates to XML/pil_properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/pil_properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C545473-22D7-4840-86B1-6F096D10952F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B811AD-52A2-EF41-B2D9-3747A404AB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="1200" windowWidth="59980" windowHeight="31380" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="1200" windowWidth="59980" windowHeight="31380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -1052,9 +1052,6 @@
     <t>pil_properties</t>
   </si>
   <si>
-    <t>Codes and definitions properties observed during pile installation as well as observed properteis from post-installation testing.</t>
-  </si>
-  <si>
     <t>DIGGS Pile Installation Properties</t>
   </si>
   <si>
@@ -1065,6 +1062,9 @@
   </si>
   <si>
     <t>//diggs:propertyClass</t>
+  </si>
+  <si>
+    <t>Codes and definitions for properties measured during pile installation and pile post-installation testing</t>
   </si>
 </sst>
 </file>
@@ -1874,8 +1874,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1922,10 +1922,10 @@
         <v>337</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -2778,7 +2778,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
@@ -2814,10 +2814,10 @@
         <v>237</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2829,10 +2829,10 @@
         <v>237</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2844,10 +2844,10 @@
         <v>307</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2859,10 +2859,10 @@
         <v>234</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2874,10 +2874,10 @@
         <v>234</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2889,10 +2889,10 @@
         <v>319</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2904,10 +2904,10 @@
         <v>319</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2919,10 +2919,10 @@
         <v>298</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2934,10 +2934,10 @@
         <v>299</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2949,10 +2949,10 @@
         <v>300</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2964,10 +2964,10 @@
         <v>332</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2979,10 +2979,10 @@
         <v>259</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2994,10 +2994,10 @@
         <v>261</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3009,10 +3009,10 @@
         <v>260</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3024,10 +3024,10 @@
         <v>316</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3039,10 +3039,10 @@
         <v>316</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3054,10 +3054,10 @@
         <v>323</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3069,10 +3069,10 @@
         <v>277</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3084,10 +3084,10 @@
         <v>279</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3099,10 +3099,10 @@
         <v>278</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3114,10 +3114,10 @@
         <v>60</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3129,10 +3129,10 @@
         <v>60</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3144,10 +3144,10 @@
         <v>245</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3159,10 +3159,10 @@
         <v>245</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3174,10 +3174,10 @@
         <v>248</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3189,10 +3189,10 @@
         <v>248</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3204,10 +3204,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3219,10 +3219,10 @@
         <v>3</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3234,10 +3234,10 @@
         <v>243</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3249,10 +3249,10 @@
         <v>243</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3264,10 +3264,10 @@
         <v>330</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3279,10 +3279,10 @@
         <v>253</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3294,10 +3294,10 @@
         <v>255</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3309,10 +3309,10 @@
         <v>254</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3324,10 +3324,10 @@
         <v>290</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3339,10 +3339,10 @@
         <v>336</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3354,10 +3354,10 @@
         <v>291</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3369,10 +3369,10 @@
         <v>252</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3384,10 +3384,10 @@
         <v>252</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3399,10 +3399,10 @@
         <v>25</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3414,10 +3414,10 @@
         <v>25</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3429,10 +3429,10 @@
         <v>241</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3444,10 +3444,10 @@
         <v>241</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3459,10 +3459,10 @@
         <v>326</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3474,10 +3474,10 @@
         <v>272</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3489,10 +3489,10 @@
         <v>271</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3504,7 +3504,7 @@
         <v>273</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>236</v>

--- a/Codelist Excel Files and Conversion Templates to XML/pil_properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/pil_properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B811AD-52A2-EF41-B2D9-3747A404AB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D40963-2312-6048-A0FE-20E606EA5E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="1200" windowWidth="59980" windowHeight="31380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Codelist Excel Files and Conversion Templates to XML/pil_properties.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/pil_properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11214"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D40963-2312-6048-A0FE-20E606EA5E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5272CECC-7E38-FD4E-84FA-72C440D88C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="1200" windowWidth="59980" windowHeight="31380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="1200" windowWidth="59980" windowHeight="31380" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="342">
   <si>
     <t>Description</t>
   </si>
@@ -744,9 +744,6 @@
   </si>
   <si>
     <t>Blow Count</t>
-  </si>
-  <si>
-    <t>//propertyClass</t>
   </si>
   <si>
     <t>bearing</t>
@@ -1282,9 +1279,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1307,6 +1301,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1559,6 +1556,9 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H36" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:H36" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H36">
+    <sortCondition ref="B1:B36"/>
+  </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="12">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2828,1,FALSE)),"Not used","")</calculatedColumnFormula>
@@ -1874,7 +1874,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1919,13 +1919,13 @@
         <v>233</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>338</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -1942,8 +1942,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1985,219 +1985,214 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2828,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2832,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B2" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="E2" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B2856,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>180</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B2830,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B2831,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B2828,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="E4" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B2853,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B2832,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>1</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>5</v>
+        <v>136</v>
       </c>
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B2833,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>1</v>
+      <c r="A6" s="18" t="str">
+        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B2853,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>180</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B2834,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B2854,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B7" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>4</v>
+        <v>298</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>180</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B2835,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B2855,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B8" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="E8" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B2841,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B2836,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="E9" s="18" t="s">
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B2841,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B2837,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>25</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B2837,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B2843,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B11" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="E11" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -2205,219 +2200,216 @@
       </c>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B2838,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B2842,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B12" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>331</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>335</v>
-      </c>
-      <c r="E12" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B2838,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B2857,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B13" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="E13" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B2848,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B2840,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>1</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B2839,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B2847,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B15" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="E15" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B2841,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B2848,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B16" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>334</v>
-      </c>
-      <c r="E16" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B2849,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B2831,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B2835,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B2836,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B2837,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B2841,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B2843,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B2842,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B2844,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>327</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B2844,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="E21" s="18" t="s">
+      <c r="C21" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -2425,153 +2417,150 @@
       </c>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B2845,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B2834,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B22" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="E22" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B2838,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E23" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B2846,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="E23" s="18" t="s">
+      <c r="F23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B2838,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B2848,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>325</v>
-      </c>
-      <c r="E24" s="18" t="s">
+      <c r="F24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B2840,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B2847,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="E25" s="18" t="s">
+      <c r="F25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B2839,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B2848,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="E26" s="18" t="s">
+      <c r="F26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B2850,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="E27" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B2849,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>1</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B2850,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B2851,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B28" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C28" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -2579,21 +2568,21 @@
       </c>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B2851,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B2852,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B29" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="C29" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -2601,21 +2590,21 @@
       </c>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B2852,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B2830,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B30" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="E30" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="E30" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F30" s="2" t="s">
@@ -2623,132 +2612,136 @@
       </c>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B2853,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B2837,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B31" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="D31" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="1:8" s="18" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B2833,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E32" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" spans="1:7" s="19" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="str">
-        <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B2853,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="23"/>
-    </row>
-    <row r="33" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="F32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B2854,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B2844,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B33" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>180</v>
+        <v>325</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>1</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B2855,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B2844,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B34" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>180</v>
+        <v>271</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>1</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B2856,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B2845,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B35" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="D35" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="D35" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="E35" s="18" t="s">
-        <v>180</v>
+      <c r="E35" s="17" t="s">
+        <v>1</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B2857,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B2846,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B36" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>174</v>
+        <v>272</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="G36" s="11"/>
     </row>
@@ -2765,7 +2758,7 @@
           <x14:formula1>
             <xm:f>Lists!$C$2:$C$178</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F23 F24:F36</xm:sqref>
+          <xm:sqref>F2:F36</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2780,7 +2773,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2811,13 +2804,13 @@
         <v/>
       </c>
       <c r="B2" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2826,13 +2819,13 @@
         <v/>
       </c>
       <c r="B3" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2841,13 +2834,13 @@
         <v/>
       </c>
       <c r="B4" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2859,10 +2852,10 @@
         <v>234</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2874,10 +2867,10 @@
         <v>234</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2886,13 +2879,13 @@
         <v/>
       </c>
       <c r="B7" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2901,13 +2894,13 @@
         <v/>
       </c>
       <c r="B8" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2916,13 +2909,13 @@
         <v/>
       </c>
       <c r="B9" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2931,13 +2924,13 @@
         <v/>
       </c>
       <c r="B10" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2946,13 +2939,13 @@
         <v/>
       </c>
       <c r="B11" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2961,13 +2954,13 @@
         <v/>
       </c>
       <c r="B12" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2976,13 +2969,13 @@
         <v/>
       </c>
       <c r="B13" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2991,28 +2984,28 @@
         <v/>
       </c>
       <c r="B14" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>IF(ISNA(VLOOKUP(B15,Definitions!B$2:B$1816,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B15" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3021,13 +3014,13 @@
         <v/>
       </c>
       <c r="B16" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3036,13 +3029,13 @@
         <v/>
       </c>
       <c r="B17" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3051,13 +3044,13 @@
         <v/>
       </c>
       <c r="B18" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3066,13 +3059,13 @@
         <v/>
       </c>
       <c r="B19" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3081,13 +3074,13 @@
         <v/>
       </c>
       <c r="B20" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3096,13 +3089,13 @@
         <v/>
       </c>
       <c r="B21" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3114,10 +3107,10 @@
         <v>60</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3129,10 +3122,10 @@
         <v>60</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3141,13 +3134,13 @@
         <v/>
       </c>
       <c r="B24" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3156,13 +3149,13 @@
         <v/>
       </c>
       <c r="B25" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3171,13 +3164,13 @@
         <v/>
       </c>
       <c r="B26" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3186,13 +3179,13 @@
         <v/>
       </c>
       <c r="B27" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3204,10 +3197,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3219,10 +3212,10 @@
         <v>3</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3231,13 +3224,13 @@
         <v/>
       </c>
       <c r="B30" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3246,13 +3239,13 @@
         <v/>
       </c>
       <c r="B31" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3261,13 +3254,13 @@
         <v/>
       </c>
       <c r="B32" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3276,13 +3269,13 @@
         <v/>
       </c>
       <c r="B33" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3291,13 +3284,13 @@
         <v/>
       </c>
       <c r="B34" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3306,13 +3299,13 @@
         <v/>
       </c>
       <c r="B35" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3321,13 +3314,13 @@
         <v/>
       </c>
       <c r="B36" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3336,13 +3329,13 @@
         <v/>
       </c>
       <c r="B37" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3351,13 +3344,13 @@
         <v/>
       </c>
       <c r="B38" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3366,13 +3359,13 @@
         <v/>
       </c>
       <c r="B39" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3381,13 +3374,13 @@
         <v/>
       </c>
       <c r="B40" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3399,10 +3392,10 @@
         <v>25</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3414,10 +3407,10 @@
         <v>25</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3426,13 +3419,13 @@
         <v/>
       </c>
       <c r="B43" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3441,13 +3434,13 @@
         <v/>
       </c>
       <c r="B44" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3456,13 +3449,13 @@
         <v/>
       </c>
       <c r="B45" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3471,13 +3464,13 @@
         <v/>
       </c>
       <c r="B46" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3486,13 +3479,13 @@
         <v/>
       </c>
       <c r="B47" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3501,13 +3494,13 @@
         <v/>
       </c>
       <c r="B48" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>236</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
